--- a/Backend-Task-page/reports/Client_Entries_report_2025_10.xlsx
+++ b/Backend-Task-page/reports/Client_Entries_report_2025_10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="36">
   <si>
     <t>01-10-2025</t>
   </si>
@@ -109,13 +109,19 @@
     <t>31-10-2025</t>
   </si>
   <si>
-    <t>Barath</t>
+    <t>barath</t>
+  </si>
+  <si>
+    <t>jai</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>gold (Barath Folder)</t>
+    <t>light (barath)</t>
+  </si>
+  <si>
+    <t>neon (jai)</t>
   </si>
 </sst>
 </file>
@@ -473,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -579,97 +585,195 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32">
+      <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V2" t="s">
-        <v>32</v>
-      </c>
-      <c r="W2" t="s">
-        <v>32</v>
-      </c>
-      <c r="X2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>32</v>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3" t="s">
+        <v>33</v>
+      </c>
+      <c r="X3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
